--- a/w.xlsx
+++ b/w.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -67,7 +67,7 @@
     <col min="6" max="6" width="4.7109375" customWidth="true"/>
     <col min="7" max="7" width="4.7109375" customWidth="true"/>
     <col min="8" max="8" width="3.7109375" customWidth="true"/>
-    <col min="9" max="9" width="3.7109375" customWidth="true"/>
+    <col min="9" max="9" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2970,296 +2970,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="0">
-        <v>1.3799999999999999</v>
-      </c>
-      <c r="B101" s="0">
-        <v>1.05</v>
-      </c>
-      <c r="C101" s="0">
-        <v>0.91000000000000003</v>
-      </c>
-      <c r="D101" s="0">
-        <v>0.89000000000000001</v>
-      </c>
-      <c r="E101" s="0">
-        <v>0.84999999999999998</v>
-      </c>
-      <c r="F101" s="0">
-        <v>4.2999999999999998</v>
-      </c>
-      <c r="G101" s="0">
-        <v>3</v>
-      </c>
-      <c r="H101" s="0">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="I101" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="0">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="B102" s="0">
-        <v>0.17000000000000001</v>
-      </c>
-      <c r="C102" s="0">
-        <v>0.17000000000000001</v>
-      </c>
-      <c r="D102" s="0">
-        <v>0.13</v>
-      </c>
-      <c r="E102" s="0">
-        <v>0.13</v>
-      </c>
-      <c r="F102" s="0">
-        <v>4</v>
-      </c>
-      <c r="G102" s="0">
-        <v>3</v>
-      </c>
-      <c r="H102" s="0">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="I102" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="B103" s="0">
-        <v>0.98999999999999999</v>
-      </c>
-      <c r="C103" s="0">
-        <v>1.03</v>
-      </c>
-      <c r="D103" s="0">
-        <v>0.89000000000000001</v>
-      </c>
-      <c r="E103" s="0">
-        <v>0.91000000000000003</v>
-      </c>
-      <c r="F103" s="0">
-        <v>4</v>
-      </c>
-      <c r="G103" s="0">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="H103" s="0">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="I103" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="0">
-        <v>1.5</v>
-      </c>
-      <c r="B104" s="0">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="C104" s="0">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D104" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="E104" s="0">
-        <v>0.34999999999999998</v>
-      </c>
-      <c r="F104" s="0">
-        <v>4.5</v>
-      </c>
-      <c r="G104" s="0">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="H104" s="0">
-        <v>3.6000000000000001</v>
-      </c>
-      <c r="I104" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="0">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="B105" s="0">
-        <v>0.13</v>
-      </c>
-      <c r="C105" s="0">
-        <v>0.13</v>
-      </c>
-      <c r="D105" s="0">
-        <v>0.13</v>
-      </c>
-      <c r="E105" s="0">
-        <v>0.11</v>
-      </c>
-      <c r="F105" s="0">
-        <v>4</v>
-      </c>
-      <c r="G105" s="0">
-        <v>2.7999999999999998</v>
-      </c>
-      <c r="H105" s="0">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="I105" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="0">
-        <v>0.91000000000000003</v>
-      </c>
-      <c r="B106" s="0">
-        <v>0.66000000000000003</v>
-      </c>
-      <c r="C106" s="0">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="D106" s="0">
-        <v>0.52000000000000002</v>
-      </c>
-      <c r="E106" s="0">
-        <v>0.46000000000000002</v>
-      </c>
-      <c r="F106" s="0">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G106" s="0">
-        <v>3</v>
-      </c>
-      <c r="H106" s="0">
-        <v>3.6000000000000001</v>
-      </c>
-      <c r="I106" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="0">
-        <v>0.23000000000000001</v>
-      </c>
-      <c r="B107" s="0">
-        <v>0.20999999999999999</v>
-      </c>
-      <c r="C107" s="0">
-        <v>0.20999999999999999</v>
-      </c>
-      <c r="D107" s="0">
-        <v>0.23000000000000001</v>
-      </c>
-      <c r="E107" s="0">
-        <v>0.20999999999999999</v>
-      </c>
-      <c r="F107" s="0">
-        <v>4.2999999999999998</v>
-      </c>
-      <c r="G107" s="0">
-        <v>3</v>
-      </c>
-      <c r="H107" s="0">
-        <v>3.7999999999999998</v>
-      </c>
-      <c r="I107" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="0">
-        <v>0</v>
-      </c>
-      <c r="B108" s="0">
-        <v>0</v>
-      </c>
-      <c r="C108" s="0">
-        <v>0</v>
-      </c>
-      <c r="D108" s="0">
-        <v>0</v>
-      </c>
-      <c r="E108" s="0">
-        <v>0</v>
-      </c>
-      <c r="F108" s="0">
-        <v>4</v>
-      </c>
-      <c r="G108" s="0">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="H108" s="0">
-        <v>3.7999999999999998</v>
-      </c>
-      <c r="I108" s="0">
-        <v>0.69999999999999996</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="0">
-        <v>0.73999999999999999</v>
-      </c>
-      <c r="B109" s="0">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="C109" s="0">
-        <v>0.52000000000000002</v>
-      </c>
-      <c r="D109" s="0">
-        <v>0.54000000000000004</v>
-      </c>
-      <c r="E109" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="F109" s="0">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G109" s="0">
-        <v>3.1000000000000001</v>
-      </c>
-      <c r="H109" s="0">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="I109" s="0">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="0">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="B110" s="0">
-        <v>1.01</v>
-      </c>
-      <c r="C110" s="0">
-        <v>0.89000000000000001</v>
-      </c>
-      <c r="D110" s="0">
-        <v>0.87</v>
-      </c>
-      <c r="E110" s="0">
-        <v>0.81999999999999995</v>
-      </c>
-      <c r="F110" s="0">
-        <v>4.2999999999999998</v>
-      </c>
-      <c r="G110" s="0">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="H110" s="0">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="I110" s="0">
-        <v>1.5</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>